--- a/TestOnlineUI/wwwroot/File/ListQuestion.xlsx
+++ b/TestOnlineUI/wwwroot/File/ListQuestion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAnTotNghiep\TestOnlineUI\wwwroot\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9715A1-CCB3-4440-9AFE-A353607DA8BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8708B3E-9D2B-4F26-8070-CB1841580C18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>STT</t>
   </si>
@@ -97,9 +97,17 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-ok
-</t>
+    <t>ok
+ok</t>
+  </si>
+  <si>
+    <t>fdf</t>
+  </si>
+  <si>
+    <t>dđ</t>
+  </si>
+  <si>
+    <t>gfgfgf</t>
   </si>
 </sst>
 </file>
@@ -135,10 +143,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -162,15 +173,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>889000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1176866</xdr:rowOff>
+      <xdr:colOff>882650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1341966</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -199,8 +210,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635000" y="577849"/>
+          <a:off x="628650" y="742949"/>
           <a:ext cx="863600" cy="1151467"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1238251</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>493195</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF82368A-3F43-4B9E-8472-1146429CABDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704851" y="4787900"/>
+          <a:ext cx="1143000" cy="410645"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -475,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -506,57 +561,57 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="138.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="138.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -564,73 +619,79 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>3</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C15" t="s">
+    <row r="16" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -638,10 +699,18 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/TestOnlineUI/wwwroot/File/ListQuestion.xlsx
+++ b/TestOnlineUI/wwwroot/File/ListQuestion.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAnTotNghiep\TestOnlineUI\wwwroot\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8708B3E-9D2B-4F26-8070-CB1841580C18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>STT</t>
   </si>
@@ -109,12 +108,31 @@
   <si>
     <t>gfgfgf</t>
   </si>
+  <si>
+    <t>LƯU Ý</t>
+  </si>
+  <si>
+    <t>Nhập đầy đủ thông tin các cột A, B, C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đánh số thứ tự để đánh dấu câu hỏi
+Những hàng không có số thứ tự mặc định là câu trả lời
+Hệ thống mặc định một số thứ tự là một câu hỏi
+</t>
+  </si>
+  <si>
+    <t>Điền đủ đáp án cho cột đáp án d là đáp 
+án đúng, s là đáp án sai, một câu phải có
+ít nhất một đáp án đúng
+Những câu có hình ảnh ở đáp án hoặc 
+câu trả lời thì cần kéo rộng dòng có ảnh và chèn ảnh nằm hoàn toàn trong ô</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,13 +140,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFFC70"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -143,13 +180,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -188,7 +233,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80E26A0F-DC28-4C40-A033-0A8A9DA5E91E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80E26A0F-DC28-4C40-A033-0A8A9DA5E91E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -238,7 +283,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF82368A-3F43-4B9E-8472-1146429CABDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF82368A-3F43-4B9E-8472-1146429CABDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -529,20 +574,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="82.453125" customWidth="1"/>
-    <col min="3" max="3" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" customWidth="1"/>
+    <col min="4" max="4" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,96 +598,116 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="138.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="138.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -649,7 +715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -657,7 +723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4</v>
       </c>
@@ -665,7 +731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>22</v>
       </c>
@@ -715,6 +781,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>